--- a/Code/Results/Cases/Case_8_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.457525054508807</v>
+        <v>1.294586849008027</v>
       </c>
       <c r="C2">
-        <v>0.1620275689891031</v>
+        <v>0.2056738151937338</v>
       </c>
       <c r="D2">
-        <v>0.0671107470163701</v>
+        <v>0.05632226403451668</v>
       </c>
       <c r="E2">
-        <v>0.03819472257882772</v>
+        <v>0.04033913504130382</v>
       </c>
       <c r="F2">
-        <v>1.467976633755143</v>
+        <v>1.194024349383554</v>
       </c>
       <c r="G2">
-        <v>0.0008339711324057975</v>
+        <v>0.02754427618160027</v>
       </c>
       <c r="H2">
-        <v>0.008072801619546099</v>
+        <v>0.003810318442312721</v>
       </c>
       <c r="I2">
-        <v>0.01316573876516447</v>
+        <v>0.00597632687258276</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.007368099680669</v>
+        <v>0.7792242318476355</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3302363115343354</v>
       </c>
       <c r="M2">
-        <v>1.436928474646294</v>
+        <v>0.2564679915881065</v>
       </c>
       <c r="N2">
-        <v>0.292860701947447</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.375516413040828</v>
       </c>
       <c r="P2">
-        <v>1.545108668569569</v>
+        <v>0.3091111432879927</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.252982349480085</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.274370840016331</v>
+        <v>1.134077984669148</v>
       </c>
       <c r="C3">
-        <v>0.139228425717306</v>
+        <v>0.1771808563940453</v>
       </c>
       <c r="D3">
-        <v>0.06606117994895833</v>
+        <v>0.05391674148314962</v>
       </c>
       <c r="E3">
-        <v>0.03328240211048517</v>
+        <v>0.03627982231751226</v>
       </c>
       <c r="F3">
-        <v>1.368839088055964</v>
+        <v>1.113935448054804</v>
       </c>
       <c r="G3">
-        <v>0.0008382226433885087</v>
+        <v>0.0338392211292009</v>
       </c>
       <c r="H3">
-        <v>0.01117375762097959</v>
+        <v>0.005607558984200345</v>
       </c>
       <c r="I3">
-        <v>0.0173044296721363</v>
+        <v>0.008093074939647504</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9580145780185418</v>
+        <v>0.7458270772620281</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3254050032042812</v>
       </c>
       <c r="M3">
-        <v>1.252489618126361</v>
+        <v>0.2377412637851251</v>
       </c>
       <c r="N3">
-        <v>0.2559196303957236</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.199289939355765</v>
       </c>
       <c r="P3">
-        <v>1.551692318158707</v>
+        <v>0.2715078564126259</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.26942149606576</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.161779904909395</v>
+        <v>1.034956147577788</v>
       </c>
       <c r="C4">
-        <v>0.1255502535456401</v>
+        <v>0.1599456170467022</v>
       </c>
       <c r="D4">
-        <v>0.06537531423538745</v>
+        <v>0.05241564346671979</v>
       </c>
       <c r="E4">
-        <v>0.03028206387805987</v>
+        <v>0.03377319099696585</v>
       </c>
       <c r="F4">
-        <v>1.308520826370838</v>
+        <v>1.064775667218015</v>
       </c>
       <c r="G4">
-        <v>0.0008409233158931565</v>
+        <v>0.03817112509587051</v>
       </c>
       <c r="H4">
-        <v>0.01340536512954718</v>
+        <v>0.006931756404608524</v>
       </c>
       <c r="I4">
-        <v>0.02026596317042895</v>
+        <v>0.009658506329261574</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9277672839887288</v>
+        <v>0.7250942347739198</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3221127377033426</v>
       </c>
       <c r="M4">
-        <v>1.139576743062918</v>
+        <v>0.2269236632358052</v>
       </c>
       <c r="N4">
-        <v>0.2332899673416193</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.090957306559488</v>
       </c>
       <c r="P4">
-        <v>1.555847904977703</v>
+        <v>0.2484469211205038</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.279478087166673</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.114726502224443</v>
+        <v>0.9934041243524803</v>
       </c>
       <c r="C5">
-        <v>0.1202719917499735</v>
+        <v>0.1532166193739357</v>
       </c>
       <c r="D5">
-        <v>0.06508877676128044</v>
+        <v>0.05181818973436236</v>
       </c>
       <c r="E5">
-        <v>0.02903331043624924</v>
+        <v>0.03272143528551652</v>
       </c>
       <c r="F5">
-        <v>1.282682017763477</v>
+        <v>1.043535549695974</v>
       </c>
       <c r="G5">
-        <v>0.0008420554223637352</v>
+        <v>0.04006396117472266</v>
       </c>
       <c r="H5">
-        <v>0.01440132185222559</v>
+        <v>0.007529259541825761</v>
       </c>
       <c r="I5">
-        <v>0.02167158403370495</v>
+        <v>0.01046117788855039</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9143195086801654</v>
+        <v>0.7156453491393222</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3202824446245032</v>
       </c>
       <c r="M5">
-        <v>1.093129666339081</v>
+        <v>0.2223864709984582</v>
       </c>
       <c r="N5">
-        <v>0.2241122177253914</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.046305789866551</v>
       </c>
       <c r="P5">
-        <v>1.556334635278056</v>
+        <v>0.2390861854581487</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.28263221934602</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.10553177028973</v>
+        <v>0.9852583191107556</v>
       </c>
       <c r="C6">
-        <v>0.119673154884083</v>
+        <v>0.1523910806362068</v>
       </c>
       <c r="D6">
-        <v>0.06504500573341332</v>
+        <v>0.05174405408492078</v>
       </c>
       <c r="E6">
-        <v>0.028790812230298</v>
+        <v>0.03251457961390081</v>
       </c>
       <c r="F6">
-        <v>1.27670777030167</v>
+        <v>1.038538139313616</v>
       </c>
       <c r="G6">
-        <v>0.0008422551937412146</v>
+        <v>0.04040276293144207</v>
       </c>
       <c r="H6">
-        <v>0.01458064378388424</v>
+        <v>0.007637299118859048</v>
       </c>
       <c r="I6">
-        <v>0.02203716488392704</v>
+        <v>0.01072988466090496</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9107053448895925</v>
+        <v>0.7129235359402699</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3194778258301625</v>
       </c>
       <c r="M6">
-        <v>1.084808953590993</v>
+        <v>0.2212778328545966</v>
       </c>
       <c r="N6">
-        <v>0.2226311816352933</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.038322795931663</v>
       </c>
       <c r="P6">
-        <v>1.554913927388299</v>
+        <v>0.2375718795015729</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.282018672936573</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.157366120465241</v>
+        <v>1.027953226734695</v>
       </c>
       <c r="C7">
-        <v>0.1262266531306153</v>
+        <v>0.1587318889978491</v>
       </c>
       <c r="D7">
-        <v>0.06538458445044704</v>
+        <v>0.05262628488208776</v>
       </c>
       <c r="E7">
-        <v>0.03016838168483105</v>
+        <v>0.03383147292479549</v>
       </c>
       <c r="F7">
-        <v>1.303550010905312</v>
+        <v>1.052738870080191</v>
       </c>
       <c r="G7">
-        <v>0.0008409664802366864</v>
+        <v>0.03878535684164941</v>
       </c>
       <c r="H7">
-        <v>0.01344230964338028</v>
+        <v>0.006976106843808616</v>
       </c>
       <c r="I7">
-        <v>0.02061002756981711</v>
+        <v>0.0100424711661331</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9238102083232107</v>
+        <v>0.7172768442871345</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3188254567871383</v>
       </c>
       <c r="M7">
-        <v>1.137272202929893</v>
+        <v>0.224361850006936</v>
       </c>
       <c r="N7">
-        <v>0.2332823436653655</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.083150234066466</v>
       </c>
       <c r="P7">
-        <v>1.551763723695359</v>
+        <v>0.2480360223820384</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.271461140046249</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.389333467207081</v>
+        <v>1.224595664027049</v>
       </c>
       <c r="C8">
-        <v>0.1550908299053333</v>
+        <v>0.1904164122473446</v>
       </c>
       <c r="D8">
-        <v>0.06678002307796937</v>
+        <v>0.05615222615081805</v>
       </c>
       <c r="E8">
-        <v>0.03636666017220769</v>
+        <v>0.03936324853561679</v>
       </c>
       <c r="F8">
-        <v>1.427542190493099</v>
+        <v>1.135557649455407</v>
       </c>
       <c r="G8">
-        <v>0.0008354540044761298</v>
+        <v>0.03205100627129553</v>
       </c>
       <c r="H8">
-        <v>0.009096781493768802</v>
+        <v>0.004453098387454557</v>
       </c>
       <c r="I8">
-        <v>0.01488759357806924</v>
+        <v>0.007144757832341142</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9853361751491079</v>
+        <v>0.7486934056209549</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3209483842111283</v>
       </c>
       <c r="M8">
-        <v>1.371000958870013</v>
+        <v>0.2432681623236697</v>
       </c>
       <c r="N8">
-        <v>0.2802647518134194</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.293735040600126</v>
       </c>
       <c r="P8">
-        <v>1.542012976425021</v>
+        <v>0.2949624898220122</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.238880896683362</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.850607568955269</v>
+        <v>1.623111273334359</v>
       </c>
       <c r="C9">
-        <v>0.2132685349423156</v>
+        <v>0.260317376916106</v>
       </c>
       <c r="D9">
-        <v>0.0691546500437461</v>
+        <v>0.06217595124897812</v>
       </c>
       <c r="E9">
-        <v>0.04888374203035895</v>
+        <v>0.04969687986081972</v>
       </c>
       <c r="F9">
-        <v>1.684094118923639</v>
+        <v>1.333515581408619</v>
       </c>
       <c r="G9">
-        <v>0.0008252954924491785</v>
+        <v>0.01925475330405391</v>
       </c>
       <c r="H9">
-        <v>0.00330573827557612</v>
+        <v>0.00125905951761407</v>
       </c>
       <c r="I9">
-        <v>0.00671791682188605</v>
+        <v>0.003044812657619467</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.11346736498173</v>
+        <v>0.830570134766532</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3317467982974733</v>
       </c>
       <c r="M9">
-        <v>1.835944441606131</v>
+        <v>0.2930693838660332</v>
       </c>
       <c r="N9">
-        <v>0.3727858768484964</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.729400269742683</v>
       </c>
       <c r="P9">
-        <v>1.531162617874912</v>
+        <v>0.3885559400002734</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.197884711731433</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.170756966605893</v>
+        <v>1.8797520867586</v>
       </c>
       <c r="C10">
-        <v>0.260566839185401</v>
+        <v>0.303718995087678</v>
       </c>
       <c r="D10">
-        <v>0.07089093648945521</v>
+        <v>0.06836694062099724</v>
       </c>
       <c r="E10">
-        <v>0.05474180723253852</v>
+        <v>0.05495114684790003</v>
       </c>
       <c r="F10">
-        <v>1.85128062657374</v>
+        <v>1.415869213102226</v>
       </c>
       <c r="G10">
-        <v>0.0008183894439570737</v>
+        <v>0.02070730855897551</v>
       </c>
       <c r="H10">
-        <v>0.001253811481072287</v>
+        <v>0.0004399254233566907</v>
       </c>
       <c r="I10">
-        <v>0.003384319289252424</v>
+        <v>0.001795372897772651</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.188863785319555</v>
+        <v>0.850297636950593</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3240415634994136</v>
       </c>
       <c r="M10">
-        <v>2.169487971337247</v>
+        <v>0.3174983027556806</v>
       </c>
       <c r="N10">
-        <v>0.4223644562152202</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.00575811205519</v>
       </c>
       <c r="P10">
-        <v>1.503718114774628</v>
+        <v>0.4359290815055346</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.130848140515816</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.15882762378709</v>
+        <v>1.840288305329892</v>
       </c>
       <c r="C11">
-        <v>0.3006416630466333</v>
+        <v>0.317908893182846</v>
       </c>
       <c r="D11">
-        <v>0.07451315547168846</v>
+        <v>0.0809507705144128</v>
       </c>
       <c r="E11">
-        <v>0.03281049505311096</v>
+        <v>0.03538076217638597</v>
       </c>
       <c r="F11">
-        <v>1.722713614218591</v>
+        <v>1.228175291559822</v>
       </c>
       <c r="G11">
-        <v>0.0008165459517471618</v>
+        <v>0.05444453583641362</v>
       </c>
       <c r="H11">
-        <v>0.01981230200149398</v>
+        <v>0.01907964037364707</v>
       </c>
       <c r="I11">
-        <v>0.003359064450011218</v>
+        <v>0.002302485415771827</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.068341173936929</v>
+        <v>0.712109763704099</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.269239887969519</v>
       </c>
       <c r="M11">
-        <v>2.225492350319058</v>
+        <v>0.2698894951472042</v>
       </c>
       <c r="N11">
-        <v>0.2944681354002512</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.991169121494096</v>
       </c>
       <c r="P11">
-        <v>1.337788964338884</v>
+        <v>0.3010498576120568</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9858338418169375</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.086494611730018</v>
+        <v>1.769706730891272</v>
       </c>
       <c r="C12">
-        <v>0.324026291113455</v>
+        <v>0.3264791653923851</v>
       </c>
       <c r="D12">
-        <v>0.07869075569249162</v>
+        <v>0.09136185837414956</v>
       </c>
       <c r="E12">
-        <v>0.02099558296299264</v>
+        <v>0.02418019667670013</v>
       </c>
       <c r="F12">
-        <v>1.589104565053191</v>
+        <v>1.092272302809874</v>
       </c>
       <c r="G12">
-        <v>0.0008162958671666317</v>
+        <v>0.0791493400209049</v>
       </c>
       <c r="H12">
-        <v>0.05866180229443074</v>
+        <v>0.05787250055337978</v>
       </c>
       <c r="I12">
-        <v>0.003342935523383161</v>
+        <v>0.002324860142613794</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9618404563775584</v>
+        <v>0.6193808348373864</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2352824995051854</v>
       </c>
       <c r="M12">
-        <v>2.203424368527777</v>
+        <v>0.2347908475021754</v>
       </c>
       <c r="N12">
-        <v>0.1962362258128394</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.943505600333424</v>
       </c>
       <c r="P12">
-        <v>1.224135527642673</v>
+        <v>0.1998756902107033</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.9164627402973089</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.958006349738582</v>
+        <v>1.673108214017248</v>
       </c>
       <c r="C13">
-        <v>0.3367399922745449</v>
+        <v>0.3378320890772954</v>
       </c>
       <c r="D13">
-        <v>0.08346298937372865</v>
+        <v>0.09825324364979338</v>
       </c>
       <c r="E13">
-        <v>0.0160707891338388</v>
+        <v>0.01921677132106903</v>
       </c>
       <c r="F13">
-        <v>1.43679366046176</v>
+        <v>0.9925752727100559</v>
       </c>
       <c r="G13">
-        <v>0.0008172962559920615</v>
+        <v>0.07393385993627177</v>
       </c>
       <c r="H13">
-        <v>0.1147983257339575</v>
+        <v>0.1138047134397056</v>
       </c>
       <c r="I13">
-        <v>0.003735150992737246</v>
+        <v>0.002442158035393049</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8542650008703419</v>
+        <v>0.554851307228823</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2135705168250901</v>
       </c>
       <c r="M13">
-        <v>2.117280903255647</v>
+        <v>0.2079086503234464</v>
       </c>
       <c r="N13">
-        <v>0.1158680056014916</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.87894349871948</v>
       </c>
       <c r="P13">
-        <v>1.137179279682094</v>
+        <v>0.1191087921521117</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.888001788813428</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.842459933979455</v>
+        <v>1.592330215162349</v>
       </c>
       <c r="C14">
-        <v>0.3411026698964292</v>
+        <v>0.3474565303744157</v>
       </c>
       <c r="D14">
-        <v>0.08724508109548879</v>
+        <v>0.1011851511189121</v>
       </c>
       <c r="E14">
-        <v>0.01677522598430148</v>
+        <v>0.02002892118376121</v>
       </c>
       <c r="F14">
-        <v>1.321903446314678</v>
+        <v>0.9353419557986484</v>
       </c>
       <c r="G14">
-        <v>0.0008185622631934522</v>
+        <v>0.05789280307325129</v>
       </c>
       <c r="H14">
-        <v>0.1645353528354434</v>
+        <v>0.163313631423506</v>
       </c>
       <c r="I14">
-        <v>0.004334589183303095</v>
+        <v>0.002691669667335361</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7788976728424473</v>
+        <v>0.519638726373401</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2026095561987553</v>
       </c>
       <c r="M14">
-        <v>2.027953788634562</v>
+        <v>0.1920248076672983</v>
       </c>
       <c r="N14">
-        <v>0.0709580011376616</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.824630609781252</v>
       </c>
       <c r="P14">
-        <v>1.089641836841466</v>
+        <v>0.07451452947598369</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.88178180429043</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.801299139794025</v>
+        <v>1.565185154546981</v>
       </c>
       <c r="C15">
-        <v>0.3401098964928906</v>
+        <v>0.3504691086930336</v>
       </c>
       <c r="D15">
-        <v>0.08814703121436906</v>
+        <v>0.1009282310619994</v>
       </c>
       <c r="E15">
-        <v>0.01740425471581908</v>
+        <v>0.02081982187112352</v>
       </c>
       <c r="F15">
-        <v>1.288284548499519</v>
+        <v>0.9249997353851143</v>
       </c>
       <c r="G15">
-        <v>0.0008191604212449893</v>
+        <v>0.04972046845567846</v>
       </c>
       <c r="H15">
-        <v>0.1772270208317366</v>
+        <v>0.1758949327238071</v>
       </c>
       <c r="I15">
-        <v>0.004730991459410916</v>
+        <v>0.002933610620801552</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7586978421240289</v>
+        <v>0.5138920723535989</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2012627271852452</v>
       </c>
       <c r="M15">
-        <v>1.992238013812596</v>
+        <v>0.1888186970683954</v>
       </c>
       <c r="N15">
-        <v>0.06131879679971064</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.805994774983077</v>
       </c>
       <c r="P15">
-        <v>1.081105647343051</v>
+        <v>0.06514102410574907</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8841643898692184</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.690884164586265</v>
+        <v>1.501115915729486</v>
       </c>
       <c r="C16">
-        <v>0.3167319101299313</v>
+        <v>0.3492951819808638</v>
       </c>
       <c r="D16">
-        <v>0.08621472934145658</v>
+        <v>0.0915049042734708</v>
       </c>
       <c r="E16">
-        <v>0.01608769569725244</v>
+        <v>0.0204376802502928</v>
       </c>
       <c r="F16">
-        <v>1.246875044337798</v>
+        <v>0.9616102914538374</v>
       </c>
       <c r="G16">
-        <v>0.0008219086624779647</v>
+        <v>0.02263293263628441</v>
       </c>
       <c r="H16">
-        <v>0.1654260224150619</v>
+        <v>0.1635195061314647</v>
       </c>
       <c r="I16">
-        <v>0.006176101673060153</v>
+        <v>0.00353275783498308</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7478879000998333</v>
+        <v>0.5431308571523132</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2151170961094913</v>
       </c>
       <c r="M16">
-        <v>1.866676151414765</v>
+        <v>0.1956877390665888</v>
       </c>
       <c r="N16">
-        <v>0.05928322245091522</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.751288846135367</v>
       </c>
       <c r="P16">
-        <v>1.107706717433381</v>
+        <v>0.065024542023842</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9214198999779164</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.666925071228349</v>
+        <v>1.490317986312647</v>
       </c>
       <c r="C17">
-        <v>0.2966395095174619</v>
+        <v>0.3394885726564212</v>
       </c>
       <c r="D17">
-        <v>0.08264452450335824</v>
+        <v>0.08416506309499283</v>
       </c>
       <c r="E17">
-        <v>0.01396076504785659</v>
+        <v>0.01840875614764714</v>
       </c>
       <c r="F17">
-        <v>1.275372559005234</v>
+        <v>1.013304937033269</v>
       </c>
       <c r="G17">
-        <v>0.0008233552451629403</v>
+        <v>0.01736660964713366</v>
       </c>
       <c r="H17">
-        <v>0.1281763822013886</v>
+        <v>0.1259434805996733</v>
       </c>
       <c r="I17">
-        <v>0.007018946182091312</v>
+        <v>0.003908306229090108</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7787100262028019</v>
+        <v>0.5818177526779849</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2313486454771088</v>
       </c>
       <c r="M17">
-        <v>1.817755466154182</v>
+        <v>0.2078691547641291</v>
       </c>
       <c r="N17">
-        <v>0.07924158400373216</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.729646464331665</v>
       </c>
       <c r="P17">
-        <v>1.152193142366734</v>
+        <v>0.08661868835068987</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.957564011845168</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.717699436920839</v>
+        <v>1.533823344470818</v>
       </c>
       <c r="C18">
-        <v>0.2765395768906558</v>
+        <v>0.3251311027598547</v>
       </c>
       <c r="D18">
-        <v>0.07784638158238266</v>
+        <v>0.07692966819637803</v>
       </c>
       <c r="E18">
-        <v>0.01467083922691126</v>
+        <v>0.01840724022781659</v>
       </c>
       <c r="F18">
-        <v>1.37257237662989</v>
+        <v>1.102230814872456</v>
       </c>
       <c r="G18">
-        <v>0.0008237641623308399</v>
+        <v>0.01611356113454709</v>
       </c>
       <c r="H18">
-        <v>0.07537749926829207</v>
+        <v>0.07309782447699575</v>
       </c>
       <c r="I18">
-        <v>0.006940503479457405</v>
+        <v>0.003682805861314975</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8543832159458447</v>
+        <v>0.6444316101647658</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2555428587277433</v>
       </c>
       <c r="M18">
-        <v>1.829912060055108</v>
+        <v>0.2303536635733359</v>
       </c>
       <c r="N18">
-        <v>0.1306149766841571</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.747792797786389</v>
       </c>
       <c r="P18">
-        <v>1.226534128995461</v>
+        <v>0.1401937133779896</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.006264609303035</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.81917307210702</v>
+        <v>1.615181225462351</v>
       </c>
       <c r="C19">
-        <v>0.2599349709614245</v>
+        <v>0.312154835817978</v>
       </c>
       <c r="D19">
-        <v>0.0736763564198526</v>
+        <v>0.07089519410742895</v>
       </c>
       <c r="E19">
-        <v>0.02324175248109484</v>
+        <v>0.02560622326128748</v>
       </c>
       <c r="F19">
-        <v>1.514568496913981</v>
+        <v>1.216706346782871</v>
       </c>
       <c r="G19">
-        <v>0.0008232790194793381</v>
+        <v>0.01531936349090923</v>
       </c>
       <c r="H19">
-        <v>0.02959540768477353</v>
+        <v>0.02756042816996285</v>
       </c>
       <c r="I19">
-        <v>0.006667673601507218</v>
+        <v>0.003646723448656353</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9600725276241278</v>
+        <v>0.7235442094560156</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2849534237742049</v>
       </c>
       <c r="M19">
-        <v>1.887091493203997</v>
+        <v>0.2602292114722218</v>
       </c>
       <c r="N19">
-        <v>0.2194698296238329</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.79893441283005</v>
       </c>
       <c r="P19">
-        <v>1.326046240890733</v>
+        <v>0.2318098533758359</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.067520853934958</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.073731619016769</v>
+        <v>1.812601798125399</v>
       </c>
       <c r="C20">
-        <v>0.2504333193665644</v>
+        <v>0.3019587013821479</v>
       </c>
       <c r="D20">
-        <v>0.07054804294552142</v>
+        <v>0.06628514982353551</v>
       </c>
       <c r="E20">
-        <v>0.05272851363544007</v>
+        <v>0.05258233614485341</v>
       </c>
       <c r="F20">
-        <v>1.791666960470621</v>
+        <v>1.408516258332142</v>
       </c>
       <c r="G20">
-        <v>0.0008202596532735602</v>
+        <v>0.0149726565053534</v>
       </c>
       <c r="H20">
-        <v>0.001673542851855281</v>
+        <v>0.0005525945085307349</v>
       </c>
       <c r="I20">
-        <v>0.004976887449087641</v>
+        <v>0.002993147862676793</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.156554633587447</v>
+        <v>0.8509638628992988</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3281275155486796</v>
       </c>
       <c r="M20">
-        <v>2.075714294833517</v>
+        <v>0.313238480628165</v>
       </c>
       <c r="N20">
-        <v>0.4088749406625567</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.948872735634836</v>
       </c>
       <c r="P20">
-        <v>1.498010446053129</v>
+        <v>0.4244515935265412</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.154765595360516</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.349218474590259</v>
+        <v>1.972125891708004</v>
       </c>
       <c r="C21">
-        <v>0.2843013290155056</v>
+        <v>0.2962609600968449</v>
       </c>
       <c r="D21">
-        <v>0.07152116008635545</v>
+        <v>0.07510835161978946</v>
       </c>
       <c r="E21">
-        <v>0.06276806922177869</v>
+        <v>0.06506517653343735</v>
       </c>
       <c r="F21">
-        <v>1.960553517901943</v>
+        <v>1.361622062121938</v>
       </c>
       <c r="G21">
-        <v>0.0008148361541813395</v>
+        <v>0.07479881091911977</v>
       </c>
       <c r="H21">
-        <v>0.0003413301305368321</v>
+        <v>3.635949324554133E-05</v>
       </c>
       <c r="I21">
-        <v>0.002947756954877256</v>
+        <v>0.002364250119439859</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.244672613963331</v>
+        <v>0.8073222398049893</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3019021728982878</v>
       </c>
       <c r="M21">
-        <v>2.350797039368217</v>
+        <v>0.3089812897656756</v>
       </c>
       <c r="N21">
-        <v>0.4766310329666794</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.06563079361473</v>
       </c>
       <c r="P21">
-        <v>1.508562935818958</v>
+        <v>0.4831675862686637</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.049969466530698</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.525996811496384</v>
+        <v>2.067895872214365</v>
       </c>
       <c r="C22">
-        <v>0.3069951580863233</v>
+        <v>0.2911508757989907</v>
       </c>
       <c r="D22">
-        <v>0.07217594613238099</v>
+        <v>0.08245209633684425</v>
       </c>
       <c r="E22">
-        <v>0.0677592645616194</v>
+        <v>0.07227288535574061</v>
       </c>
       <c r="F22">
-        <v>2.066327117329379</v>
+        <v>1.318798576001456</v>
       </c>
       <c r="G22">
-        <v>0.0008114000406165857</v>
+        <v>0.1626696194815551</v>
       </c>
       <c r="H22">
-        <v>3.195102244690773E-05</v>
+        <v>8.451854707658413E-06</v>
       </c>
       <c r="I22">
-        <v>0.001872132036125684</v>
+        <v>0.001800172380646892</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.298477810719575</v>
+        <v>0.7719287468309872</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2832658287954146</v>
       </c>
       <c r="M22">
-        <v>2.528573502721315</v>
+        <v>0.3029921830897777</v>
       </c>
       <c r="N22">
-        <v>0.5112570984152001</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.130328075233194</v>
       </c>
       <c r="P22">
-        <v>1.51135979202526</v>
+        <v>0.5108866336309745</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9818068182913322</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.436266048181096</v>
+        <v>2.029250245064645</v>
       </c>
       <c r="C23">
-        <v>0.2939163093663524</v>
+        <v>0.2976760424822089</v>
       </c>
       <c r="D23">
-        <v>0.07179448014679046</v>
+        <v>0.07742512048626082</v>
       </c>
       <c r="E23">
-        <v>0.06521100170215988</v>
+        <v>0.06800321618030125</v>
       </c>
       <c r="F23">
-        <v>2.015249018125658</v>
+        <v>1.364546735514622</v>
       </c>
       <c r="G23">
-        <v>0.0008132002961407762</v>
+        <v>0.09727768617161558</v>
       </c>
       <c r="H23">
-        <v>0.000153086990657858</v>
+        <v>2.375097106543933E-06</v>
       </c>
       <c r="I23">
-        <v>0.002068575722432797</v>
+        <v>0.001692046597340457</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.274185134640135</v>
+        <v>0.8045387824996126</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2978393545947853</v>
       </c>
       <c r="M23">
-        <v>2.435680463110344</v>
+        <v>0.3118202404564769</v>
       </c>
       <c r="N23">
-        <v>0.49261831129256</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.112857384594292</v>
       </c>
       <c r="P23">
-        <v>1.514394214226186</v>
+        <v>0.4970385891526377</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.028721780350921</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.090052633988819</v>
+        <v>1.826483836589802</v>
       </c>
       <c r="C24">
-        <v>0.247040413486161</v>
+        <v>0.2990403951630185</v>
       </c>
       <c r="D24">
-        <v>0.07033135868586982</v>
+        <v>0.06560092265439721</v>
       </c>
       <c r="E24">
-        <v>0.05550610479186346</v>
+        <v>0.05512719558748991</v>
       </c>
       <c r="F24">
-        <v>1.815644111354132</v>
+        <v>1.429077797538923</v>
       </c>
       <c r="G24">
-        <v>0.0008201900037529928</v>
+        <v>0.01470327344008204</v>
       </c>
       <c r="H24">
-        <v>0.00147853575736856</v>
+        <v>0.0003959394898813695</v>
       </c>
       <c r="I24">
-        <v>0.004404056482460561</v>
+        <v>0.002357341490800025</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.175911026278023</v>
+        <v>0.8663495656151738</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3338832327829735</v>
       </c>
       <c r="M24">
-        <v>2.082856476367994</v>
+        <v>0.3190101981496838</v>
       </c>
       <c r="N24">
-        <v>0.4226617508260517</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.955993809661493</v>
       </c>
       <c r="P24">
-        <v>1.519428725517514</v>
+        <v>0.4386343843612934</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.169466455556631</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.718772748659774</v>
+        <v>1.513971857232633</v>
       </c>
       <c r="C25">
-        <v>0.1985349817119015</v>
+        <v>0.2453819920961848</v>
       </c>
       <c r="D25">
-        <v>0.06858890802743467</v>
+        <v>0.06046643148494724</v>
       </c>
       <c r="E25">
-        <v>0.04528725683111823</v>
+        <v>0.04651251131029888</v>
       </c>
       <c r="F25">
-        <v>1.605647926399044</v>
+        <v>1.28366442091162</v>
       </c>
       <c r="G25">
-        <v>0.0008280172620509889</v>
+        <v>0.0210782035055157</v>
       </c>
       <c r="H25">
-        <v>0.004575487461236039</v>
+        <v>0.00190667163768099</v>
       </c>
       <c r="I25">
-        <v>0.00903310944202218</v>
+        <v>0.004436447249791087</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.071859890293034</v>
+        <v>0.809440342752282</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3294219095430009</v>
       </c>
       <c r="M25">
-        <v>1.706516258293334</v>
+        <v>0.2793165309563861</v>
       </c>
       <c r="N25">
-        <v>0.3478769890318887</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.616910915098202</v>
       </c>
       <c r="P25">
-        <v>1.526800634848783</v>
+        <v>0.3639592585681157</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.210446582605115</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
